--- a/documentacion/EducacionTecnica/Estructura Servicios Técnica-Caja de Herramientas vf.xlsx
+++ b/documentacion/EducacionTecnica/Estructura Servicios Técnica-Caja de Herramientas vf.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldo\Rquirosca\Documents\SECCIÓN CURRICULAR\CAJA DE HERRAMIENTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Faro\documentacion\EducacionTecnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" tabRatio="332"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -557,9 +557,6 @@
     </r>
   </si>
   <si>
-    <t>TALLERES EXPLORATORIOS</t>
-  </si>
-  <si>
     <t>English Conversation sétimo</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
   </si>
   <si>
     <t>English Conversation noveno</t>
-  </si>
-  <si>
-    <t>ESPECIALIDADES TÉCNICAS</t>
   </si>
   <si>
     <t>comunicación</t>
@@ -1052,9 +1046,6 @@
     <t xml:space="preserve">6.        Agropecuario en Producción Pecuaria </t>
   </si>
   <si>
-    <t>TALLERES DE COLEGIOS ACADÉMICOS (LICEOS EXPERIMENTALES BILINGUES Y COLEGIOS CON ORIENTACIÓN TECNOLÓGICA)</t>
-  </si>
-  <si>
     <t>Enlace Subárea Inglés de la Especialidad Técnica</t>
   </si>
   <si>
@@ -1161,13 +1152,61 @@
   </si>
   <si>
     <t>En Construcción.Los programas de estudio de las especialidades que se construyan  se irán incorporando.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TALLERES EXPLORATORIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Elige Nivel)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESPECIALIDADES TÉCNICAS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Elige Especialidad)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TALLERES DE COLEGIOS ACADÉMICOS (LICEOS EXPERIMENTALES BILINGUES Y COLEGIOS CON ORIENTACIÓN TECNOLÓGICA)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Elige Nivel)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,8 +1359,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,13 +1439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1668,9 +1717,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,6 +1757,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1718,6 +1815,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,9 +1874,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1769,92 +1911,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1876,56 +1937,56 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2209,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,79 +2287,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="A1" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="A5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="47"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2313,8 +2374,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
@@ -2329,8 +2390,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2345,8 +2406,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2361,26 +2422,26 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2395,8 +2456,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2411,298 +2472,298 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="94" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="59"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="59"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="60"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="71" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="1" t="s">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="1" t="s">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="1" t="s">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="1" t="s">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="78"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="104"/>
+    </row>
+    <row r="31" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="79"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="105"/>
+    </row>
+    <row r="33" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81"/>
+      <c r="B34" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="1" t="s">
+      <c r="D34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-    </row>
-    <row r="33" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-    </row>
-    <row r="34" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="E34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="81"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
@@ -2711,10 +2772,10 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="87"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2"/>
@@ -2723,10 +2784,10 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="87"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="2"/>
@@ -2735,10 +2796,10 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="87"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
@@ -2747,10 +2808,10 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="87"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2"/>
@@ -2759,10 +2820,10 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2770,28 +2831,28 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="88"/>
+    <row r="41" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="81"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="86" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="90" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2799,10 +2860,10 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
@@ -2811,10 +2872,10 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="87"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
@@ -2823,10 +2884,10 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="87"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
@@ -2835,10 +2896,10 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="87"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
@@ -2847,10 +2908,10 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="87"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
@@ -2859,10 +2920,10 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
-      <c r="B48" s="87"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="1"/>
@@ -2871,10 +2932,10 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="87"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="1"/>
@@ -2883,10 +2944,10 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="87"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
@@ -2895,10 +2956,10 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
-      <c r="B51" s="87"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
@@ -2907,10 +2968,10 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50"/>
-      <c r="B52" s="87"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -2919,10 +2980,10 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
-      <c r="B53" s="87"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="2"/>
@@ -2931,10 +2992,10 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
-      <c r="B54" s="87"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="2"/>
@@ -2943,10 +3004,10 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="87"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="2"/>
@@ -2955,10 +3016,10 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
-      <c r="B56" s="87"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="1"/>
@@ -2967,10 +3028,10 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="50"/>
-      <c r="B57" s="87"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="91"/>
       <c r="C57" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="1"/>
@@ -2979,10 +3040,10 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="50"/>
-      <c r="B58" s="87"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2991,10 +3052,10 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
-      <c r="B59" s="87"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="2"/>
@@ -3003,10 +3064,10 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="50"/>
-      <c r="B60" s="87"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="2"/>
@@ -3015,10 +3076,10 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
-      <c r="B61" s="87"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="2"/>
@@ -3027,10 +3088,10 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="50"/>
-      <c r="B62" s="87"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="91"/>
       <c r="C62" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="2"/>
@@ -3039,10 +3100,10 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
-      <c r="B63" s="87"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="2"/>
@@ -3051,10 +3112,10 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50"/>
-      <c r="B64" s="39"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3063,12 +3124,12 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="97" t="s">
+      <c r="A65" s="81"/>
+      <c r="B65" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="1"/>
@@ -3077,10 +3138,10 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="50"/>
-      <c r="B66" s="98"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="94"/>
       <c r="C66" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="1"/>
@@ -3089,10 +3150,10 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="50"/>
-      <c r="B67" s="98"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
@@ -3101,10 +3162,10 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="50"/>
-      <c r="B68" s="98"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="2"/>
@@ -3113,10 +3174,10 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="98"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="2"/>
@@ -3125,10 +3186,10 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="50"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
@@ -3137,10 +3198,10 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="50"/>
-      <c r="B71" s="98"/>
+      <c r="A71" s="81"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="2"/>
@@ -3149,10 +3210,10 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="50"/>
-      <c r="B72" s="98"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="1"/>
@@ -3161,10 +3222,10 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="50"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="1"/>
@@ -3173,10 +3234,10 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="50"/>
-      <c r="B74" s="98"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="1"/>
@@ -3185,10 +3246,10 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="50"/>
-      <c r="B75" s="98"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="2"/>
@@ -3197,10 +3258,10 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50"/>
-      <c r="B76" s="98"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
@@ -3209,10 +3270,10 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="50"/>
-      <c r="B77" s="98"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="2"/>
@@ -3221,10 +3282,10 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="50"/>
-      <c r="B78" s="98"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="2"/>
@@ -3233,10 +3294,10 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="50"/>
-      <c r="B79" s="98"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="2"/>
@@ -3245,10 +3306,10 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="50"/>
-      <c r="B80" s="98"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="1"/>
@@ -3257,10 +3318,10 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="50"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="1"/>
@@ -3269,10 +3330,10 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="50"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3281,10 +3342,10 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="50"/>
-      <c r="B83" s="98"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="2"/>
@@ -3293,10 +3354,10 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="50"/>
-      <c r="B84" s="98"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="2"/>
@@ -3305,10 +3366,10 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="50"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="2"/>
@@ -3317,10 +3378,10 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="50"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="2"/>
@@ -3329,10 +3390,10 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="50"/>
-      <c r="B87" s="98"/>
+      <c r="A87" s="81"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="2"/>
@@ -3341,10 +3402,10 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="50"/>
-      <c r="B88" s="98"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="2"/>
@@ -3353,67 +3414,67 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="50"/>
-      <c r="B89" s="99" t="s">
+      <c r="A89" s="81"/>
+      <c r="B89" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="35"/>
+    </row>
+    <row r="90" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="81"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="35"/>
+    </row>
+    <row r="91" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="81"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="D89" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="E89" s="103"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="104"/>
-    </row>
-    <row r="90" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="50"/>
-      <c r="B90" s="100"/>
-      <c r="C90" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="104"/>
-    </row>
-    <row r="91" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="50"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="101" t="s">
+      <c r="D91" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="D91" s="102" t="s">
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="82"/>
+      <c r="B92" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104"/>
-    </row>
-    <row r="92" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="51"/>
-      <c r="B92" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
     </row>
     <row r="93" spans="1:8" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -3423,854 +3484,829 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="62" t="s">
+      <c r="A94" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="F94" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="H94" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="63"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="24" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="27"/>
+    </row>
+    <row r="96" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="24" t="s">
+      <c r="D96" s="24"/>
+      <c r="E96" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="F95" s="25"/>
-      <c r="G95" s="24" t="s">
+      <c r="F96" s="24"/>
+      <c r="G96" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="63"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="26" t="s">
+      <c r="H96" s="27"/>
+    </row>
+    <row r="97" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="53"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="26" t="s">
+      <c r="D97" s="24"/>
+      <c r="E97" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26" t="s">
+      <c r="F97" s="24"/>
+      <c r="G97" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="63"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="27" t="s">
+      <c r="H97" s="27"/>
+    </row>
+    <row r="98" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="26" t="s">
+      <c r="D98" s="24"/>
+      <c r="E98" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26" t="s">
+      <c r="F98" s="24"/>
+      <c r="G98" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="63"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="27" t="s">
+      <c r="H98" s="27"/>
+    </row>
+    <row r="99" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="53"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="26" t="s">
+      <c r="D99" s="24"/>
+      <c r="E99" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F98" s="25"/>
-      <c r="G98" s="26" t="s">
+      <c r="F99" s="24"/>
+      <c r="G99" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="63"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="27" t="s">
+      <c r="H99" s="27"/>
+    </row>
+    <row r="100" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="53"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="26" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26" t="s">
+      <c r="F100" s="24"/>
+      <c r="G100" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="63"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="26" t="s">
+      <c r="H100" s="27"/>
+    </row>
+    <row r="101" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="53"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="24" t="s">
+      <c r="D101" s="24"/>
+      <c r="E101" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26" t="s">
+      <c r="H101" s="27"/>
+    </row>
+    <row r="102" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="53"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H102" s="27"/>
+    </row>
+    <row r="103" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="53"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="63"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="24" t="s">
+      <c r="H103" s="27"/>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="53"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H104" s="27"/>
+    </row>
+    <row r="105" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="53"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26" t="s">
+      <c r="H105" s="27"/>
+    </row>
+    <row r="106" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="53"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="27"/>
+    </row>
+    <row r="107" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="53"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="53"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="63"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H102" s="28"/>
-    </row>
-    <row r="103" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="63"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="H103" s="28"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="63"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="H104" s="28"/>
-    </row>
-    <row r="105" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="63"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="26" t="s">
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="53"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="H105" s="28"/>
-    </row>
-    <row r="106" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="63"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H106" s="28"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="63"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H107" s="28"/>
-    </row>
-    <row r="108" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="63"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="26" t="s">
+      <c r="H109" s="27"/>
+    </row>
+    <row r="110" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="53"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="H108" s="28"/>
-    </row>
-    <row r="109" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="63"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D109" s="12"/>
-      <c r="E109" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H109" s="28"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="63"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H110" s="28"/>
+      <c r="G110" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H110" s="27"/>
     </row>
     <row r="111" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="63"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="28"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="27"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H111" s="28"/>
+      <c r="G111" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H111" s="27"/>
     </row>
     <row r="112" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="63"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="28"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="27"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
-      <c r="G112" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H112" s="28"/>
+      <c r="G112" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H112" s="27"/>
     </row>
     <row r="113" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="63"/>
-      <c r="B113" s="66"/>
+      <c r="A113" s="53"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
-      <c r="G113" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="H113" s="28"/>
+      <c r="G113" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H113" s="27"/>
     </row>
     <row r="114" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="64"/>
-      <c r="B114" s="67"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="H114" s="28"/>
+      <c r="G114" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="36" t="s">
+      <c r="A115" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
+      <c r="B115" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="59"/>
     </row>
     <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="33" t="s">
+      <c r="A116" s="69"/>
+      <c r="B116" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D116" s="23" t="s">
+      <c r="C116" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="71"/>
+      <c r="H116" s="72"/>
+    </row>
+    <row r="117" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="69"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="40"/>
-      <c r="H116" s="41"/>
-    </row>
-    <row r="117" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F117" s="1"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="43"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="74"/>
     </row>
     <row r="118" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="37"/>
-      <c r="B118" s="34"/>
+      <c r="A118" s="69"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F118" s="1"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="43"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="74"/>
     </row>
     <row r="119" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="37"/>
-      <c r="B119" s="34"/>
+      <c r="A119" s="69"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F119" s="1"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="43"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="74"/>
     </row>
     <row r="120" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="37"/>
-      <c r="B120" s="34"/>
+      <c r="A120" s="69"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F120" s="1"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="43"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="74"/>
     </row>
     <row r="121" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="37"/>
-      <c r="B121" s="34"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="74"/>
+    </row>
+    <row r="122" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="69"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" s="41"/>
+      <c r="E122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="74"/>
+    </row>
+    <row r="123" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="69"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="43"/>
-    </row>
-    <row r="122" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="37"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D122" s="58"/>
-      <c r="E122" s="1" t="s">
+      <c r="F123" s="1"/>
+      <c r="G123" s="73"/>
+      <c r="H123" s="74"/>
+    </row>
+    <row r="124" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="69"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="43"/>
-    </row>
-    <row r="123" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="37"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="1" t="s">
+      <c r="F124" s="1"/>
+      <c r="G124" s="73"/>
+      <c r="H124" s="74"/>
+    </row>
+    <row r="125" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="69"/>
+      <c r="B125" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="43"/>
-    </row>
-    <row r="124" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="37"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="43"/>
-    </row>
-    <row r="125" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="37"/>
-      <c r="B125" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F125" s="1"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="43"/>
+      <c r="G125" s="73"/>
+      <c r="H125" s="74"/>
     </row>
     <row r="126" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="37"/>
-      <c r="B126" s="34"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F126" s="1"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="43"/>
+      <c r="G126" s="73"/>
+      <c r="H126" s="74"/>
     </row>
     <row r="127" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="37"/>
-      <c r="B127" s="34"/>
+      <c r="A127" s="69"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F127" s="1"/>
-      <c r="G127" s="42"/>
-      <c r="H127" s="43"/>
+      <c r="G127" s="73"/>
+      <c r="H127" s="74"/>
     </row>
     <row r="128" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="34"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F128" s="1"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="43"/>
+      <c r="G128" s="73"/>
+      <c r="H128" s="74"/>
     </row>
     <row r="129" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="37"/>
-      <c r="B129" s="34"/>
+      <c r="A129" s="69"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F129" s="1"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="43"/>
+      <c r="G129" s="73"/>
+      <c r="H129" s="74"/>
     </row>
     <row r="130" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="37"/>
-      <c r="B130" s="34"/>
+      <c r="A130" s="69"/>
+      <c r="B130" s="50"/>
       <c r="C130" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F130" s="1"/>
-      <c r="G130" s="42"/>
-      <c r="H130" s="43"/>
+      <c r="G130" s="73"/>
+      <c r="H130" s="74"/>
     </row>
     <row r="131" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="37"/>
-      <c r="B131" s="34"/>
+      <c r="A131" s="69"/>
+      <c r="B131" s="50"/>
       <c r="C131" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F131" s="1"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="43"/>
+      <c r="G131" s="73"/>
+      <c r="H131" s="74"/>
     </row>
     <row r="132" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="37"/>
-      <c r="B132" s="34"/>
+      <c r="A132" s="69"/>
+      <c r="B132" s="50"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F132" s="1"/>
-      <c r="G132" s="42"/>
-      <c r="H132" s="43"/>
+      <c r="G132" s="73"/>
+      <c r="H132" s="74"/>
     </row>
     <row r="133" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="37"/>
-      <c r="B133" s="34"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="50"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
       <c r="E133" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F133" s="1"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="43"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="74"/>
     </row>
     <row r="134" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="34"/>
+      <c r="A134" s="69"/>
+      <c r="B134" s="50"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F134" s="1"/>
-      <c r="G134" s="42"/>
-      <c r="H134" s="43"/>
+      <c r="G134" s="73"/>
+      <c r="H134" s="74"/>
     </row>
     <row r="135" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="37"/>
-      <c r="B135" s="35"/>
+      <c r="A135" s="69"/>
+      <c r="B135" s="51"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F135" s="1"/>
-      <c r="G135" s="42"/>
-      <c r="H135" s="43"/>
+      <c r="G135" s="73"/>
+      <c r="H135" s="74"/>
     </row>
     <row r="136" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="33" t="s">
+      <c r="A136" s="69"/>
+      <c r="B136" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F136" s="1"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="43"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="74"/>
     </row>
     <row r="137" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="37"/>
-      <c r="B137" s="34"/>
+      <c r="A137" s="69"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F137" s="1"/>
-      <c r="G137" s="42"/>
-      <c r="H137" s="43"/>
+      <c r="G137" s="73"/>
+      <c r="H137" s="74"/>
     </row>
     <row r="138" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="34"/>
+      <c r="A138" s="69"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F138" s="1"/>
-      <c r="G138" s="42"/>
-      <c r="H138" s="43"/>
+      <c r="G138" s="73"/>
+      <c r="H138" s="74"/>
     </row>
     <row r="139" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="34"/>
+      <c r="A139" s="69"/>
+      <c r="B139" s="50"/>
       <c r="C139" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F139" s="1"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="43"/>
+      <c r="G139" s="73"/>
+      <c r="H139" s="74"/>
     </row>
     <row r="140" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="37"/>
-      <c r="B140" s="34"/>
+      <c r="A140" s="69"/>
+      <c r="B140" s="50"/>
       <c r="C140" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F140" s="1"/>
-      <c r="G140" s="42"/>
-      <c r="H140" s="43"/>
+      <c r="G140" s="73"/>
+      <c r="H140" s="74"/>
     </row>
     <row r="141" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="34"/>
+      <c r="A141" s="69"/>
+      <c r="B141" s="50"/>
       <c r="C141" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F141" s="1"/>
-      <c r="G141" s="42"/>
-      <c r="H141" s="43"/>
+      <c r="G141" s="73"/>
+      <c r="H141" s="74"/>
     </row>
     <row r="142" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="37"/>
-      <c r="B142" s="34"/>
+      <c r="A142" s="69"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F142" s="1"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="43"/>
+      <c r="G142" s="73"/>
+      <c r="H142" s="74"/>
     </row>
     <row r="143" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37"/>
-      <c r="B143" s="34"/>
+      <c r="A143" s="69"/>
+      <c r="B143" s="50"/>
       <c r="C143" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="74"/>
+    </row>
+    <row r="144" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="69"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="28"/>
+      <c r="E144" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="73"/>
+      <c r="H144" s="74"/>
+    </row>
+    <row r="145" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="69"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="73"/>
+      <c r="H145" s="74"/>
+    </row>
+    <row r="146" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="69"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="74"/>
+    </row>
+    <row r="147" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="69"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="84"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="42"/>
-      <c r="H143" s="43"/>
-    </row>
-    <row r="144" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="37"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D144" s="29"/>
-      <c r="E144" s="4" t="s">
+      <c r="F147" s="4"/>
+      <c r="G147" s="73"/>
+      <c r="H147" s="74"/>
+    </row>
+    <row r="148" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="69"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="84"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="73"/>
+      <c r="H148" s="74"/>
+    </row>
+    <row r="149" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="69"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="43"/>
-    </row>
-    <row r="145" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="42"/>
-      <c r="H145" s="43"/>
-    </row>
-    <row r="146" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="43"/>
-    </row>
-    <row r="147" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="37"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="61"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="4" t="s">
+      <c r="F149" s="31"/>
+      <c r="G149" s="73"/>
+      <c r="H149" s="74"/>
+    </row>
+    <row r="150" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="70"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="43"/>
-    </row>
-    <row r="148" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="61"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F148" s="4"/>
-      <c r="G148" s="42"/>
-      <c r="H148" s="43"/>
-    </row>
-    <row r="149" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="37"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F149" s="32"/>
-      <c r="G149" s="42"/>
-      <c r="H149" s="43"/>
-    </row>
-    <row r="150" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="38"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F150" s="32"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="45"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="B125:B135"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="A94:A114"/>
-    <mergeCell ref="B94:B114"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="D31:H31"/>
+  <mergeCells count="41">
     <mergeCell ref="B136:B150"/>
     <mergeCell ref="A115:A150"/>
     <mergeCell ref="G116:H150"/>
@@ -4286,6 +4322,32 @@
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="B42:B64"/>
     <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="B125:B135"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="A94:A114"/>
+    <mergeCell ref="B94:B114"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="B33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
